--- a/data/trans_orig/P76_P_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DDC484-D17F-4BF3-ACB7-332B87412812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12596747-CF3C-4BB4-AA7A-29A23CB035E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8878DEB-42B5-4A2B-B187-5EC3DDB510D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31E01400-4A58-428F-9FEC-CC7FF63C954F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="398">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -83,1165 +83,1150 @@
     <t>0,41%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Trabajadores no cualificados</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Trabajadores no cualificados</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1656,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C30D0-3260-4D0A-9D51-98C10E31BB83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E712A-76B5-4158-9806-6364F66AC430}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2636,13 @@
         <v>262189</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>256</v>
@@ -2666,13 +2651,13 @@
         <v>268538</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>508</v>
@@ -2681,13 +2666,13 @@
         <v>530726</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2687,13 @@
         <v>62458</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -2717,13 +2702,13 @@
         <v>101408</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -2732,13 +2717,13 @@
         <v>163866</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2738,13 @@
         <v>215021</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -2768,13 +2753,13 @@
         <v>221989</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>416</v>
@@ -2783,13 +2768,13 @@
         <v>437010</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2789,13 @@
         <v>93137</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -2819,13 +2804,13 @@
         <v>70762</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>151</v>
@@ -2834,13 +2819,13 @@
         <v>163900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2840,13 @@
         <v>18318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2870,7 +2855,7 @@
         <v>14221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>178</v>
@@ -2927,7 +2912,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -2936,13 +2921,13 @@
         <v>28996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +2983,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3010,13 +2995,13 @@
         <v>1063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3025,13 +3010,13 @@
         <v>1067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3040,13 +3025,13 @@
         <v>2130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3046,13 @@
         <v>240169</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>220</v>
@@ -3076,13 +3061,13 @@
         <v>247229</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -3091,13 +3076,13 @@
         <v>487398</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3097,13 @@
         <v>78811</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -3127,13 +3112,13 @@
         <v>101650</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -3142,13 +3127,13 @@
         <v>180461</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3148,13 @@
         <v>165196</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -3181,10 +3166,10 @@
         <v>25</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>294</v>
@@ -3193,13 +3178,13 @@
         <v>327867</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3199,13 @@
         <v>82033</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -3229,13 +3214,13 @@
         <v>72728</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>128</v>
@@ -3244,13 +3229,13 @@
         <v>154761</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3250,13 @@
         <v>26221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -3280,13 +3265,13 @@
         <v>14096</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -3295,13 +3280,13 @@
         <v>40317</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3301,13 @@
         <v>6897</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3331,13 +3316,13 @@
         <v>1010</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3346,13 +3331,13 @@
         <v>7907</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3393,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3426,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3435,13 +3420,13 @@
         <v>1059</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3450,13 +3435,13 @@
         <v>1059</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3456,13 @@
         <v>172009</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>196</v>
@@ -3486,13 +3471,13 @@
         <v>214257</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>356</v>
@@ -3501,13 +3486,13 @@
         <v>386266</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3507,13 @@
         <v>63087</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>55</v>
@@ -3537,13 +3522,13 @@
         <v>58932</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>112</v>
@@ -3552,13 +3537,13 @@
         <v>122019</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3558,13 @@
         <v>124915</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>89</v>
@@ -3588,13 +3573,13 @@
         <v>98123</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>205</v>
@@ -3603,13 +3588,13 @@
         <v>223038</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3609,13 @@
         <v>48589</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -3639,13 +3624,13 @@
         <v>47358</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>81</v>
@@ -3654,13 +3639,13 @@
         <v>95947</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3660,13 @@
         <v>6170</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3690,13 +3675,13 @@
         <v>5272</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3705,13 +3690,13 @@
         <v>11442</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3711,13 @@
         <v>4180</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3741,13 +3726,13 @@
         <v>5813</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -3756,13 +3741,13 @@
         <v>9993</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3803,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3830,13 +3815,13 @@
         <v>1036</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3860,13 +3845,13 @@
         <v>1036</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3866,13 @@
         <v>279413</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>358</v>
@@ -3896,13 +3881,13 @@
         <v>379155</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M45" s="7">
         <v>616</v>
@@ -3911,13 +3896,13 @@
         <v>658568</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3917,13 @@
         <v>80559</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H46" s="7">
         <v>93</v>
@@ -3947,10 +3932,10 @@
         <v>100465</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>315</v>
@@ -4085,13 +4070,13 @@
         <v>5215</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H49" s="7">
         <v>7</v>
@@ -4100,13 +4085,13 @@
         <v>8004</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M49" s="7">
         <v>11</v>
@@ -4118,10 +4103,10 @@
         <v>135</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4121,13 @@
         <v>2002</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -4151,13 +4136,13 @@
         <v>5831</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M50" s="7">
         <v>7</v>
@@ -4166,13 +4151,13 @@
         <v>7833</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4225,13 @@
         <v>4032</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -4255,13 +4240,13 @@
         <v>5818</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="M52" s="7">
         <v>9</v>
@@ -4270,13 +4255,13 @@
         <v>9850</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,28 +4276,28 @@
         <v>1281539</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H53" s="7">
         <v>1308</v>
       </c>
       <c r="I53" s="7">
-        <v>1399516</v>
+        <v>1399517</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="M53" s="7">
         <v>2513</v>
@@ -4321,13 +4306,13 @@
         <v>2681055</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4327,13 @@
         <v>404012</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H54" s="7">
         <v>440</v>
@@ -4357,13 +4342,13 @@
         <v>473341</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M54" s="7">
         <v>824</v>
@@ -4372,13 +4357,13 @@
         <v>877353</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>370</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,28 +4378,28 @@
         <v>1008281</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H55" s="7">
         <v>934</v>
       </c>
       <c r="I55" s="7">
-        <v>1002597</v>
+        <v>1002598</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M55" s="7">
         <v>1892</v>
@@ -4423,13 +4408,13 @@
         <v>2010878</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4429,13 @@
         <v>476262</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="H56" s="7">
         <v>376</v>
@@ -4459,13 +4444,13 @@
         <v>414566</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M56" s="7">
         <v>804</v>
@@ -4474,13 +4459,13 @@
         <v>890828</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>386</v>
+        <v>153</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4480,13 @@
         <v>123923</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H57" s="7">
         <v>88</v>
@@ -4510,13 +4495,13 @@
         <v>97404</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>391</v>
+        <v>63</v>
       </c>
       <c r="M57" s="7">
         <v>200</v>
@@ -4525,13 +4510,13 @@
         <v>221328</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4531,13 @@
         <v>45389</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H58" s="7">
         <v>36</v>
@@ -4561,13 +4546,13 @@
         <v>43084</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M58" s="7">
         <v>75</v>
@@ -4576,13 +4561,13 @@
         <v>88473</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4594,7 @@
         <v>3187</v>
       </c>
       <c r="I59" s="7">
-        <v>3436326</v>
+        <v>3436327</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>78</v>
@@ -4638,7 +4623,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_P_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12596747-CF3C-4BB4-AA7A-29A23CB035E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{265A9B60-AF33-4A94-8959-91CF24FB0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31E01400-4A58-428F-9FEC-CC7FF63C954F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EABE112-AB83-4AB9-AEC7-A0C9DD2B3821}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="399">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -98,1135 +98,1138 @@
     <t>26,93%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>27,27%</t>
   </si>
   <si>
-    <t>23,04%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>15,44%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1641,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6E712A-76B5-4158-9806-6364F66AC430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F173D042-45E0-471B-A954-A8E24224F515}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2089,10 +2092,10 @@
         <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2101,13 +2104,13 @@
         <v>12034</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2125,13 @@
         <v>443571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>407</v>
@@ -2137,13 +2140,13 @@
         <v>416287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>842</v>
@@ -2152,18 +2155,18 @@
         <v>859859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2181,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2190,13 +2193,13 @@
         <v>1982</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2205,13 +2208,13 @@
         <v>1982</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2229,13 @@
         <v>208307</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -2241,13 +2244,13 @@
         <v>176816</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>369</v>
@@ -2256,13 +2259,13 @@
         <v>385124</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2280,13 @@
         <v>73430</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2292,13 +2295,13 @@
         <v>59314</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -2307,13 +2310,13 @@
         <v>132744</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2331,13 @@
         <v>231833</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>205</v>
@@ -2343,13 +2346,13 @@
         <v>219673</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>432</v>
@@ -2358,13 +2361,13 @@
         <v>451506</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,10 +2385,10 @@
         <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -2394,13 +2397,13 @@
         <v>90960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -2409,13 +2412,13 @@
         <v>198717</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2433,13 @@
         <v>35695</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2445,13 +2448,13 @@
         <v>33556</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -2460,13 +2463,13 @@
         <v>69251</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2484,13 @@
         <v>13270</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -2499,10 +2502,10 @@
         <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2511,13 +2514,13 @@
         <v>21709</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2535,13 @@
         <v>670292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>553</v>
@@ -2547,13 +2550,13 @@
         <v>590741</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>1204</v>
@@ -2562,18 +2565,18 @@
         <v>1261033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2588,13 @@
         <v>1934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2606,7 +2609,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2615,13 +2618,13 @@
         <v>1934</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2639,13 @@
         <v>262189</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>256</v>
@@ -2651,13 +2654,13 @@
         <v>268538</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>508</v>
@@ -2666,13 +2669,13 @@
         <v>530726</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2690,13 @@
         <v>62458</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -2702,13 +2705,13 @@
         <v>101408</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -2717,13 +2720,13 @@
         <v>163866</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2741,13 @@
         <v>215021</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -2753,13 +2756,13 @@
         <v>221989</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>416</v>
@@ -2768,13 +2771,13 @@
         <v>437010</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2792,13 @@
         <v>93137</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -2804,13 +2807,13 @@
         <v>70762</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
         <v>151</v>
@@ -2819,13 +2822,13 @@
         <v>163900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2843,13 @@
         <v>18318</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2855,13 +2858,13 @@
         <v>14221</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2870,13 +2873,13 @@
         <v>32539</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2894,13 @@
         <v>12965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2906,13 +2909,13 @@
         <v>16031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -2921,13 +2924,13 @@
         <v>28996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2945,13 @@
         <v>666023</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>652</v>
@@ -2957,13 +2960,13 @@
         <v>692950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>1288</v>
@@ -2972,18 +2975,18 @@
         <v>1358972</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2995,13 +2998,13 @@
         <v>1063</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3010,13 +3013,13 @@
         <v>1067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -3025,13 +3028,13 @@
         <v>2130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3049,13 @@
         <v>240169</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>220</v>
@@ -3061,13 +3064,13 @@
         <v>247229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -3076,13 +3079,13 @@
         <v>487398</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3100,13 @@
         <v>78811</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -3112,13 +3115,13 @@
         <v>101650</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -3127,13 +3130,13 @@
         <v>180461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3151,13 @@
         <v>165196</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>144</v>
@@ -3166,10 +3169,10 @@
         <v>25</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>294</v>
@@ -3178,13 +3181,13 @@
         <v>327867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3202,13 @@
         <v>82033</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>59</v>
@@ -3214,13 +3217,13 @@
         <v>72728</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>128</v>
@@ -3229,13 +3232,13 @@
         <v>154761</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3253,13 @@
         <v>26221</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -3265,13 +3268,13 @@
         <v>14096</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -3280,13 +3283,13 @@
         <v>40317</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3304,13 @@
         <v>6897</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3316,13 +3319,13 @@
         <v>1010</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3331,13 +3334,13 @@
         <v>7907</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3355,13 @@
         <v>600391</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7">
         <v>525</v>
@@ -3367,13 +3370,13 @@
         <v>600451</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7">
         <v>1060</v>
@@ -3382,18 +3385,18 @@
         <v>1200842</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3411,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3420,13 +3423,13 @@
         <v>1059</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3435,13 +3438,13 @@
         <v>1059</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3459,13 @@
         <v>172009</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>196</v>
@@ -3471,13 +3474,13 @@
         <v>214257</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>356</v>
@@ -3486,13 +3489,13 @@
         <v>386266</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3510,13 @@
         <v>63087</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>55</v>
@@ -3522,13 +3525,13 @@
         <v>58932</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M38" s="7">
         <v>112</v>
@@ -3537,13 +3540,13 @@
         <v>122019</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3561,13 @@
         <v>124915</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>89</v>
@@ -3573,13 +3576,13 @@
         <v>98123</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>205</v>
@@ -3588,13 +3591,13 @@
         <v>223038</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3612,13 @@
         <v>48589</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -3624,13 +3627,13 @@
         <v>47358</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>81</v>
@@ -3639,13 +3642,13 @@
         <v>95947</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3663,13 @@
         <v>6170</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3675,13 +3678,13 @@
         <v>5272</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
@@ -3690,13 +3693,13 @@
         <v>11442</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3714,13 @@
         <v>4180</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3726,13 +3729,13 @@
         <v>5813</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -3741,13 +3744,13 @@
         <v>9993</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3765,13 @@
         <v>418950</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7">
         <v>391</v>
@@ -3777,13 +3780,13 @@
         <v>430814</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7">
         <v>774</v>
@@ -3792,18 +3795,18 @@
         <v>849765</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3815,13 +3818,13 @@
         <v>1036</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3836,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3845,13 +3848,13 @@
         <v>1036</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3869,13 @@
         <v>279413</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>358</v>
@@ -3881,13 +3884,13 @@
         <v>379155</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>616</v>
@@ -3896,13 +3899,13 @@
         <v>658568</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3920,13 @@
         <v>80559</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H46" s="7">
         <v>93</v>
@@ -3932,13 +3935,13 @@
         <v>100465</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
         <v>168</v>
@@ -3947,13 +3950,13 @@
         <v>181024</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3971,13 @@
         <v>115803</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H47" s="7">
         <v>136</v>
@@ -3983,13 +3986,13 @@
         <v>145792</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M47" s="7">
         <v>239</v>
@@ -3998,13 +4001,13 @@
         <v>261595</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4022,13 @@
         <v>60183</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H48" s="7">
         <v>60</v>
@@ -4034,13 +4037,13 @@
         <v>65836</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M48" s="7">
         <v>107</v>
@@ -4049,13 +4052,13 @@
         <v>126019</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4073,13 @@
         <v>5215</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H49" s="7">
         <v>7</v>
@@ -4085,13 +4088,13 @@
         <v>8004</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M49" s="7">
         <v>11</v>
@@ -4100,7 +4103,7 @@
         <v>13219</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>340</v>
@@ -4121,13 +4124,13 @@
         <v>2002</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>236</v>
+        <v>342</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -4136,7 +4139,7 @@
         <v>5831</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>344</v>
@@ -4151,13 +4154,13 @@
         <v>7833</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>346</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4175,13 @@
         <v>544211</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H51" s="7">
         <v>659</v>
@@ -4187,13 +4190,13 @@
         <v>705084</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M51" s="7">
         <v>1149</v>
@@ -4202,13 +4205,13 @@
         <v>1249295</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4228,7 @@
         <v>4032</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>347</v>
@@ -4240,13 +4243,13 @@
         <v>5818</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>349</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="M52" s="7">
         <v>9</v>
@@ -4255,13 +4258,13 @@
         <v>9850</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4279,13 @@
         <v>1281539</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H53" s="7">
         <v>1308</v>
@@ -4291,28 +4294,28 @@
         <v>1399517</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M53" s="7">
         <v>2513</v>
       </c>
       <c r="N53" s="7">
-        <v>2681055</v>
+        <v>2681056</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4330,13 @@
         <v>404012</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="H54" s="7">
         <v>440</v>
@@ -4342,13 +4345,13 @@
         <v>473341</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="M54" s="7">
         <v>824</v>
@@ -4363,7 +4366,7 @@
         <v>366</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4381,13 @@
         <v>1008281</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H55" s="7">
         <v>934</v>
@@ -4393,28 +4396,28 @@
         <v>1002598</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M55" s="7">
         <v>1892</v>
       </c>
       <c r="N55" s="7">
-        <v>2010878</v>
+        <v>2010879</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4432,13 @@
         <v>476262</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="H56" s="7">
         <v>376</v>
@@ -4444,13 +4447,13 @@
         <v>414566</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M56" s="7">
         <v>804</v>
@@ -4459,13 +4462,13 @@
         <v>890828</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4483,13 @@
         <v>123923</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H57" s="7">
         <v>88</v>
@@ -4495,13 +4498,13 @@
         <v>97404</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="M57" s="7">
         <v>200</v>
@@ -4510,13 +4513,13 @@
         <v>221328</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4534,13 @@
         <v>45389</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>390</v>
+        <v>287</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>391</v>
+        <v>127</v>
       </c>
       <c r="H58" s="7">
         <v>36</v>
@@ -4546,13 +4549,13 @@
         <v>43084</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M58" s="7">
         <v>75</v>
@@ -4561,13 +4564,13 @@
         <v>88473</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>396</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4585,13 @@
         <v>3343438</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="7">
         <v>3187</v>
@@ -4597,33 +4600,33 @@
         <v>3436327</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M59" s="7">
         <v>6317</v>
       </c>
       <c r="N59" s="7">
-        <v>6779765</v>
+        <v>6779766</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
